--- a/algae/biovolume1.xlsx
+++ b/algae/biovolume1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="24760" windowHeight="15000" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="26440" yWindow="5000" windowWidth="24760" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1484,6 +1484,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1961,7 +1967,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2086,6 +2092,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="448">
@@ -2538,55 +2559,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="309"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2932,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3022,111 +2995,138 @@
       <c r="AG1" s="106"/>
       <c r="AH1" s="106"/>
     </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="2">
+    <row r="2" spans="1:34" s="110" customFormat="1">
+      <c r="A2" s="107">
         <v>35444</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="108">
         <v>6808</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="108">
         <v>100</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="109">
         <v>5.6427709999999998</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="108">
         <f>C2*E2</f>
         <v>38415.984967999997</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="108">
         <f t="shared" ref="G2:G10" si="0">F2/$F$11</f>
         <v>0.65316823841660399</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="108">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="108">
         <f>C2/((J2)*0.207)</f>
         <v>1980.0655562244967</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="108">
         <v>16.61</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="108">
         <f>I2*E2</f>
         <v>11173.056498762458</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="2">
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+    </row>
+    <row r="3" spans="1:34" s="110" customFormat="1">
+      <c r="A3" s="107">
         <v>35444</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="108">
         <v>1830</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="108"/>
+      <c r="E3" s="108">
         <v>3.156457729</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="108">
         <f t="shared" ref="F3:F10" si="1">C3*E3</f>
         <v>5776.3176440699999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="108">
         <f t="shared" si="0"/>
         <v>9.8211909007532447E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H3" s="108"/>
+      <c r="I3" s="108">
         <f t="shared" ref="I3:I9" si="2">C3/((J3)*0.207)</f>
         <v>532.24441361498668</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="108">
         <v>16.61</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="108">
         <f t="shared" ref="K3:K10" si="3">I3*E3</f>
         <v>1680.0069930720974</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" s="2">
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+    </row>
+    <row r="4" spans="1:34" s="110" customFormat="1">
+      <c r="A4" s="107">
         <v>35444</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="108">
         <v>47</v>
       </c>
-      <c r="E4" s="3">
+      <c r="D4" s="108"/>
+      <c r="E4" s="109">
         <v>84.985100000000003</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="108">
         <f t="shared" si="1"/>
         <v>3994.2997</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="108">
         <f t="shared" si="0"/>
         <v>6.7913127853683558E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H4" s="108"/>
+      <c r="I4" s="108">
         <f t="shared" si="2"/>
         <v>13.669665267707307</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="108">
         <v>16.61</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="108">
         <f t="shared" si="3"/>
         <v>1161.7178697426323</v>
       </c>
-      <c r="V4" s="72"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
     </row>
     <row r="5" spans="1:34" s="46" customFormat="1">
       <c r="A5" s="43">
@@ -3260,50 +3260,50 @@
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
     </row>
-    <row r="8" spans="1:34" s="46" customFormat="1">
-      <c r="A8" s="43">
+    <row r="8" spans="1:34" s="115" customFormat="1">
+      <c r="A8" s="112">
         <v>35444</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="113">
         <v>1</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="76">
+      <c r="D8" s="113"/>
+      <c r="E8" s="114">
         <v>7003.5400365753658</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="113">
         <f t="shared" si="1"/>
         <v>7003.5400365753658</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="113">
         <f t="shared" si="0"/>
         <v>0.11907777223935763</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="1">
+      <c r="H8" s="113"/>
+      <c r="I8" s="108">
         <f t="shared" si="2"/>
         <v>0.2908439418661129</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="108">
         <v>16.61</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="108">
         <f t="shared" si="3"/>
         <v>2036.9371912547199</v>
       </c>
-      <c r="S8" s="45"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27" t="s">
+      <c r="S8" s="114"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="2">
@@ -3338,213 +3338,327 @@
         <v>283.9151666390365</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="2">
+    <row r="10" spans="1:34" s="110" customFormat="1">
+      <c r="A10" s="107">
         <v>35444</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="108">
         <v>127</v>
       </c>
-      <c r="E10" s="1">
+      <c r="D10" s="108"/>
+      <c r="E10" s="108">
         <v>9.7808534999999992</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="108">
         <f t="shared" si="1"/>
         <v>1242.1683945</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="108">
         <f t="shared" si="0"/>
         <v>2.1119982807370048E-2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="H10" s="108"/>
+      <c r="I10" s="108">
         <f>C10/((J10)*0.207)</f>
         <v>36.937180616996343</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="108">
         <v>16.61</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="108">
         <f t="shared" si="3"/>
         <v>361.27715231788079</v>
       </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="2">
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+    </row>
+    <row r="11" spans="1:34" s="110" customFormat="1">
+      <c r="A11" s="107">
         <v>35444</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1">
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108">
         <f>SUM(F2:F10)</f>
         <v>58814.839284174595</v>
       </c>
-      <c r="K11" s="1">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108">
         <f>SUM(K2:K10)</f>
         <v>17105.939697631249</v>
       </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="2">
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="108"/>
+    </row>
+    <row r="12" spans="1:34" s="110" customFormat="1">
+      <c r="A12" s="107">
         <v>35478</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="108">
         <v>229</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="108">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="109">
         <v>5.6427709999999998</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="108">
         <f>C12*E12</f>
         <v>1292.194559</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="108">
         <f>F12/$F$15</f>
         <v>0.75119500693254981</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
+      <c r="H12" s="108">
+        <v>0</v>
+      </c>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="2">
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="108"/>
+    </row>
+    <row r="13" spans="1:34" s="110" customFormat="1">
+      <c r="A13" s="107">
         <v>35478</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="108">
         <v>117</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="108"/>
+      <c r="E13" s="108">
         <v>3.156457729</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="108">
         <f>C13*E13</f>
         <v>369.305554293</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="108">
         <f>F13/$F$15</f>
         <v>0.21468941072778444</v>
       </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="2">
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="108"/>
+    </row>
+    <row r="14" spans="1:34" s="110" customFormat="1">
+      <c r="A14" s="107">
         <v>35478</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="108">
         <v>6</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="108"/>
+      <c r="E14" s="108">
         <v>9.7808534999999992</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="108">
         <f>C14*E14</f>
         <v>58.685120999999995</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="108">
         <f>F14/$F$15</f>
         <v>3.4115582339665711E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="2">
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="108"/>
+    </row>
+    <row r="15" spans="1:34" s="110" customFormat="1">
+      <c r="A15" s="107">
         <v>35478</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="1">
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108">
         <f>SUM(F12:F14)</f>
         <v>1720.1852342930001</v>
       </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="2">
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="108"/>
+    </row>
+    <row r="16" spans="1:34" s="110" customFormat="1">
+      <c r="A16" s="107">
         <v>35556</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="108">
         <v>86</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="108">
         <v>100</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="109">
         <v>5.6427709999999998</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="108">
         <f>C16*E16</f>
         <v>485.27830599999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="108">
         <f t="shared" ref="G16:G27" si="4">F16/$F$28</f>
         <v>8.7658383697977401E-4</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="108">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="2">
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="108"/>
+    </row>
+    <row r="17" spans="1:26" s="110" customFormat="1">
+      <c r="A17" s="107">
         <v>35556</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="108">
         <v>270</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="108"/>
+      <c r="E17" s="108">
         <v>3.156457729</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="108">
         <f t="shared" ref="F17:F27" si="5">C17*E17</f>
         <v>852.24358683000003</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="108">
         <f t="shared" si="4"/>
         <v>1.5394526071908243E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="2">
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="108"/>
+    </row>
+    <row r="18" spans="1:26" s="110" customFormat="1">
+      <c r="A18" s="107">
         <v>35556</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="108">
         <v>144</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="108"/>
+      <c r="E18" s="108">
         <v>9.7808534999999992</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="108">
         <f t="shared" si="5"/>
         <v>1408.442904</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="108">
         <f t="shared" si="4"/>
         <v>2.5441448127608152E-3</v>
       </c>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="108"/>
+      <c r="Y18" s="108"/>
+      <c r="Z18" s="108"/>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="2">
@@ -3590,27 +3704,40 @@
         <v>2.2885220460604632E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="2">
+    <row r="21" spans="1:26" s="110" customFormat="1">
+      <c r="A21" s="107">
         <v>35556</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="108">
         <v>11</v>
       </c>
-      <c r="E21" s="3">
+      <c r="D21" s="108"/>
+      <c r="E21" s="109">
         <v>84.985100000000003</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="108">
         <f t="shared" si="5"/>
         <v>934.83609999999999</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="108">
         <f t="shared" si="4"/>
         <v>1.6886438263432441E-3</v>
       </c>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="2">
@@ -3701,61 +3828,103 @@
         <v>7.6528091371228471E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="2">
+    <row r="26" spans="1:26" s="110" customFormat="1">
+      <c r="A26" s="107">
         <v>35556</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="108">
         <v>43</v>
       </c>
-      <c r="E26" s="76">
+      <c r="D26" s="108"/>
+      <c r="E26" s="114">
         <v>7003.5400365753658</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="108">
         <f t="shared" si="5"/>
         <v>301152.2215727407</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="108">
         <f t="shared" si="4"/>
         <v>0.54398716496759314</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="2">
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="108"/>
+    </row>
+    <row r="27" spans="1:26" s="110" customFormat="1">
+      <c r="A27" s="107">
         <v>35556</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="108">
         <v>206</v>
       </c>
-      <c r="E27" s="16">
+      <c r="D27" s="108"/>
+      <c r="E27" s="116">
         <v>874.86316980000004</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="108">
         <f t="shared" si="5"/>
         <v>180221.81297880001</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="108">
         <f t="shared" si="4"/>
         <v>0.32554418026757564</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="2">
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="108"/>
+    </row>
+    <row r="28" spans="1:26" s="110" customFormat="1">
+      <c r="A28" s="107">
         <v>35556</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="1">
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108">
         <f>SUM(F16:F27)</f>
         <v>553601.70417013648</v>
       </c>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="108"/>
+      <c r="Y28" s="108"/>
+      <c r="Z28" s="108"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="2">
@@ -3881,107 +4050,74 @@
       <c r="Y32"/>
       <c r="Z32"/>
     </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="2">
+    <row r="33" spans="1:26" s="110" customFormat="1">
+      <c r="A33" s="107">
         <v>35599</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="108">
         <v>8</v>
       </c>
-      <c r="E33" s="3">
+      <c r="D33" s="108"/>
+      <c r="E33" s="109">
         <v>5.6427709999999998</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="108">
         <f t="shared" si="6"/>
         <v>45.142167999999998</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="108">
         <f t="shared" si="7"/>
         <v>3.7353021699758923E-4</v>
       </c>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-    </row>
-    <row r="34" spans="1:26">
-      <c r="A34" s="2">
+    </row>
+    <row r="34" spans="1:26" s="110" customFormat="1">
+      <c r="A34" s="107">
         <v>35599</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="108">
         <v>57</v>
       </c>
-      <c r="E34" s="49">
+      <c r="D34" s="108"/>
+      <c r="E34" s="117">
         <v>1034.087</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="108">
         <f t="shared" si="6"/>
         <v>58942.959000000003</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="108">
         <f t="shared" si="7"/>
         <v>0.48772527419928102</v>
       </c>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-    </row>
-    <row r="35" spans="1:26">
-      <c r="A35" s="2">
+    </row>
+    <row r="35" spans="1:26" s="110" customFormat="1">
+      <c r="A35" s="107">
         <v>35599</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="108">
         <v>184</v>
       </c>
-      <c r="E35" s="1">
+      <c r="D35" s="108"/>
+      <c r="E35" s="108">
         <v>3.156457729</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="108">
         <f t="shared" si="6"/>
         <v>580.78822213599994</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="108">
         <f t="shared" si="7"/>
         <v>4.8057494855830614E-3</v>
       </c>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="2">
@@ -4017,73 +4153,51 @@
       <c r="Y36"/>
       <c r="Z36"/>
     </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="2">
+    <row r="37" spans="1:26" s="110" customFormat="1">
+      <c r="A37" s="107">
         <v>35599</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="108">
         <v>5</v>
       </c>
-      <c r="E37" s="76">
+      <c r="D37" s="108"/>
+      <c r="E37" s="114">
         <v>7003.5400365753658</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="108">
         <f t="shared" si="6"/>
         <v>35017.700182876826</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="108">
         <f t="shared" si="7"/>
         <v>0.28975500574244689</v>
       </c>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-    </row>
-    <row r="38" spans="1:26">
-      <c r="A38" s="2">
+    </row>
+    <row r="38" spans="1:26" s="110" customFormat="1">
+      <c r="A38" s="107">
         <v>35599</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="108">
         <v>9</v>
       </c>
-      <c r="E38" s="58">
+      <c r="D38" s="108"/>
+      <c r="E38" s="108">
         <v>874.86316980794345</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="108">
         <f t="shared" si="6"/>
         <v>7873.768528271491</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="108">
         <f t="shared" si="7"/>
         <v>6.5151732786826705E-2</v>
       </c>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="2">
@@ -4222,17 +4336,33 @@
       <c r="Y42"/>
       <c r="Z42"/>
     </row>
-    <row r="43" spans="1:26">
-      <c r="A43" s="2">
+    <row r="43" spans="1:26" s="110" customFormat="1">
+      <c r="A43" s="107">
         <v>35599</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="1">
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108">
         <f>SUM(F29:F42)</f>
         <v>120852.78766159725</v>
       </c>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="108"/>
+      <c r="U43" s="108"/>
+      <c r="V43" s="108"/>
+      <c r="W43" s="108"/>
+      <c r="X43" s="108"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="108"/>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="2">
@@ -4292,107 +4422,135 @@
       <c r="Y45"/>
       <c r="Z45"/>
     </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="2">
+    <row r="46" spans="1:26" s="110" customFormat="1">
+      <c r="A46" s="107">
         <v>35670</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="108">
         <v>2</v>
       </c>
-      <c r="E46" s="3">
+      <c r="D46" s="108"/>
+      <c r="E46" s="109">
         <v>84.985100000000003</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="108">
         <f t="shared" si="9"/>
         <v>169.97020000000001</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="108">
         <f t="shared" si="8"/>
         <v>2.2967783698150468E-3</v>
       </c>
-      <c r="S46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="2">
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="108"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="108"/>
+      <c r="X46" s="108"/>
+    </row>
+    <row r="47" spans="1:26" s="110" customFormat="1">
+      <c r="A47" s="107">
         <v>35670</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="108">
         <v>213</v>
       </c>
-      <c r="E47" s="3">
+      <c r="D47" s="108"/>
+      <c r="E47" s="109">
         <v>5.6427709999999998</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="108">
         <f t="shared" si="9"/>
         <v>1201.9102229999999</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="108">
         <f t="shared" si="8"/>
         <v>1.6241208180292656E-2</v>
       </c>
-      <c r="S47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-    </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="2">
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="108"/>
+      <c r="X47" s="108"/>
+    </row>
+    <row r="48" spans="1:26" s="110" customFormat="1">
+      <c r="A48" s="107">
         <v>35670</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="108">
         <v>478</v>
       </c>
-      <c r="E48" s="1">
+      <c r="D48" s="108"/>
+      <c r="E48" s="108">
         <v>3.1564577286666666</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="108">
         <f t="shared" si="9"/>
         <v>1508.7867943026667</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="108">
         <f t="shared" si="8"/>
         <v>2.0387979032894878E-2</v>
       </c>
-      <c r="S48"/>
-      <c r="Y48"/>
-      <c r="Z48"/>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="2">
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="108"/>
+      <c r="V48" s="108"/>
+      <c r="W48" s="108"/>
+      <c r="X48" s="108"/>
+    </row>
+    <row r="49" spans="1:26" s="110" customFormat="1">
+      <c r="A49" s="107">
         <v>35670</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="108">
         <v>161</v>
       </c>
-      <c r="E49" s="1">
+      <c r="D49" s="108"/>
+      <c r="E49" s="108">
         <v>9.7808534999999992</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="108">
         <f t="shared" si="9"/>
         <v>1574.7174134999998</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="108">
         <f t="shared" si="8"/>
         <v>2.1278888263342021E-2</v>
       </c>
-      <c r="S49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="T49" s="108"/>
+      <c r="U49" s="108"/>
+      <c r="V49" s="108"/>
+      <c r="W49" s="108"/>
+      <c r="X49" s="108"/>
+    </row>
+    <row r="50" spans="1:26" ht="16" customHeight="1">
       <c r="A50" s="2">
         <v>35670</v>
       </c>
@@ -4417,55 +4575,69 @@
       <c r="Y50"/>
       <c r="Z50"/>
     </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="2">
+    <row r="51" spans="1:26" s="110" customFormat="1">
+      <c r="A51" s="107">
         <v>35670</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="108">
         <v>5</v>
       </c>
-      <c r="E51" s="76">
+      <c r="D51" s="108"/>
+      <c r="E51" s="114">
         <v>7003.5400365753658</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="108">
         <f t="shared" si="9"/>
         <v>35017.700182876826</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="108">
         <f t="shared" si="8"/>
         <v>0.47318821970380626</v>
       </c>
-      <c r="S51"/>
-      <c r="Y51"/>
-      <c r="Z51"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="2">
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+      <c r="T51" s="108"/>
+      <c r="U51" s="108"/>
+      <c r="V51" s="108"/>
+      <c r="W51" s="108"/>
+      <c r="X51" s="108"/>
+    </row>
+    <row r="52" spans="1:26" s="110" customFormat="1">
+      <c r="A52" s="107">
         <v>35670</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="108">
         <v>7</v>
       </c>
-      <c r="E52" s="58">
+      <c r="D52" s="108"/>
+      <c r="E52" s="108">
         <v>874.86316980794345</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="108">
         <f t="shared" si="9"/>
         <v>6124.0421886556041</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="108">
         <f t="shared" si="8"/>
         <v>8.2753139284056781E-2</v>
       </c>
-      <c r="S52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
+      <c r="V52" s="108"/>
+      <c r="W52" s="108"/>
+      <c r="X52" s="108"/>
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="2">
@@ -4669,67 +4841,57 @@
       <c r="Y60"/>
       <c r="Z60"/>
     </row>
-    <row r="61" spans="1:26">
-      <c r="A61" s="2">
+    <row r="61" spans="1:26" s="110" customFormat="1">
+      <c r="A61" s="107">
         <v>35744</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="108">
         <v>83</v>
       </c>
-      <c r="E61" s="1">
+      <c r="D61" s="108"/>
+      <c r="E61" s="108">
         <v>3.156457729</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="108">
         <f t="shared" si="11"/>
         <v>261.98599150699999</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="108">
         <f t="shared" si="10"/>
         <v>2.0335244457759848E-3</v>
       </c>
-      <c r="K61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-    </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="2">
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+    </row>
+    <row r="62" spans="1:26" s="110" customFormat="1">
+      <c r="A62" s="107">
         <v>35744</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="108">
         <v>146</v>
       </c>
-      <c r="E62" s="3">
+      <c r="D62" s="108"/>
+      <c r="E62" s="109">
         <v>5.6427709999999998</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="108">
         <f t="shared" si="11"/>
         <v>823.84456599999999</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="108">
         <f t="shared" si="10"/>
         <v>6.3946474956312477E-3</v>
       </c>
-      <c r="K62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="108"/>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="2">
@@ -4793,67 +4955,57 @@
       <c r="Y64"/>
       <c r="Z64"/>
     </row>
-    <row r="65" spans="1:26">
-      <c r="A65" s="2">
+    <row r="65" spans="1:26" s="110" customFormat="1">
+      <c r="A65" s="107">
         <v>35744</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="108">
         <v>12</v>
       </c>
-      <c r="E65" s="76">
+      <c r="D65" s="108"/>
+      <c r="E65" s="114">
         <v>7003.5400365753658</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="108">
         <f t="shared" si="11"/>
         <v>84042.480438904386</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="108">
         <f t="shared" si="10"/>
         <v>0.65233426212254464</v>
       </c>
-      <c r="K65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-    </row>
-    <row r="66" spans="1:26">
-      <c r="A66" s="2">
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="108"/>
+    </row>
+    <row r="66" spans="1:26" s="110" customFormat="1">
+      <c r="A66" s="107">
         <v>35744</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="108">
         <v>12</v>
       </c>
-      <c r="E66" s="58">
+      <c r="D66" s="108"/>
+      <c r="E66" s="108">
         <v>874.86316980794345</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="108">
         <f t="shared" si="11"/>
         <v>10498.358037695321</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="108">
         <f t="shared" si="10"/>
         <v>8.148782149518792E-2</v>
       </c>
-      <c r="K66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="108"/>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="2">
@@ -4917,36 +5069,31 @@
       <c r="Y68"/>
       <c r="Z68"/>
     </row>
-    <row r="69" spans="1:26">
-      <c r="A69" s="2">
+    <row r="69" spans="1:26" s="110" customFormat="1">
+      <c r="A69" s="107">
         <v>35744</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="108">
         <v>2</v>
       </c>
-      <c r="E69" s="3">
+      <c r="D69" s="108"/>
+      <c r="E69" s="109">
         <v>1034.087</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="108">
         <f t="shared" si="11"/>
         <v>2068.174</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="108">
         <f t="shared" si="10"/>
         <v>1.6053081170204212E-2</v>
       </c>
-      <c r="K69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="108"/>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="2">
@@ -5041,26 +5188,24 @@
       <c r="Y72"/>
       <c r="Z72"/>
     </row>
-    <row r="73" spans="1:26">
-      <c r="A73" s="2">
+    <row r="73" spans="1:26" s="110" customFormat="1">
+      <c r="A73" s="107">
         <v>35744</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="F73" s="1">
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108">
         <f>SUM(F59:F72)</f>
         <v>128833.46057196139</v>
       </c>
-      <c r="K73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="108"/>
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="2">
@@ -5099,107 +5244,74 @@
       <c r="Y74"/>
       <c r="Z74"/>
     </row>
-    <row r="75" spans="1:26">
-      <c r="A75" s="2">
+    <row r="75" spans="1:26" s="110" customFormat="1">
+      <c r="A75" s="107">
         <v>35849</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="108">
         <v>1522</v>
       </c>
-      <c r="E75" s="3">
+      <c r="D75" s="108"/>
+      <c r="E75" s="109">
         <v>5.6427709999999998</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="108">
         <f t="shared" ref="F75:F89" si="13">C75*E75</f>
         <v>8588.2974620000005</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="108">
         <f t="shared" si="12"/>
         <v>4.5414950455137777E-2</v>
       </c>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-      <c r="W75"/>
-      <c r="X75"/>
-      <c r="Y75"/>
-      <c r="Z75"/>
-    </row>
-    <row r="76" spans="1:26">
-      <c r="A76" s="2">
+    </row>
+    <row r="76" spans="1:26" s="110" customFormat="1">
+      <c r="A76" s="107">
         <v>35849</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="108">
         <v>998</v>
       </c>
-      <c r="E76" s="1">
+      <c r="D76" s="108"/>
+      <c r="E76" s="108">
         <v>3.156457729</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="108">
         <f t="shared" si="13"/>
         <v>3150.1448135420001</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="108">
         <f t="shared" si="12"/>
         <v>1.6657978052870472E-2</v>
       </c>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-    </row>
-    <row r="77" spans="1:26">
-      <c r="A77" s="2">
+    </row>
+    <row r="77" spans="1:26" s="110" customFormat="1">
+      <c r="A77" s="107">
         <v>35849</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="108">
         <v>295</v>
       </c>
-      <c r="E77" s="1">
+      <c r="D77" s="108"/>
+      <c r="E77" s="108">
         <v>9.7808534999999992</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="108">
         <f t="shared" si="13"/>
         <v>2885.3517824999999</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="108">
         <f t="shared" si="12"/>
         <v>1.5257751472591107E-2</v>
       </c>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="2">
@@ -5235,73 +5347,51 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:26">
-      <c r="A79" s="2">
+    <row r="79" spans="1:26" s="110" customFormat="1">
+      <c r="A79" s="107">
         <v>35849</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="108">
         <v>18</v>
       </c>
-      <c r="E79" s="76">
+      <c r="D79" s="108"/>
+      <c r="E79" s="114">
         <v>7003.5400365753658</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="108">
         <f t="shared" si="13"/>
         <v>126063.72065835659</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="108">
         <f t="shared" si="12"/>
         <v>0.66662544622160103</v>
       </c>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="U79"/>
-      <c r="V79"/>
-      <c r="W79"/>
-      <c r="X79"/>
-      <c r="Y79"/>
-      <c r="Z79"/>
-    </row>
-    <row r="80" spans="1:26">
-      <c r="A80" s="2">
+    </row>
+    <row r="80" spans="1:26" s="110" customFormat="1">
+      <c r="A80" s="107">
         <v>35849</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="108">
         <v>21</v>
       </c>
-      <c r="E80" s="58">
+      <c r="D80" s="108"/>
+      <c r="E80" s="108">
         <v>874.86316980794345</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="108">
         <f t="shared" si="13"/>
         <v>18372.126565966813</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="108">
         <f t="shared" si="12"/>
         <v>9.7151876893025041E-2</v>
       </c>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-      <c r="Z80"/>
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="2">
@@ -21620,7 +21710,7 @@
         <v>4398.2297155999995</v>
       </c>
       <c r="G651" s="1">
-        <f t="shared" ref="G651:G682" si="77">F651/$F$642</f>
+        <f t="shared" ref="G651:G667" si="77">F651/$F$642</f>
         <v>6.3161037430808115E-2</v>
       </c>
       <c r="H651"/>
@@ -40555,12 +40645,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:K1 S1:Z1">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(J1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:I1 AA1:AH1 L1:N1">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
